--- a/1. Inicio/1.1.5 EDT .xlsx
+++ b/1. Inicio/1.1.5 EDT .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\1. Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0334DCFB-268B-45DB-8067-E993D84C78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FBD79E-78FE-410D-8530-6850B23AEE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDT" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>ESTRUCTURA DE DESGLOSE DE TRABAJO EDT</t>
   </si>
@@ -287,13 +287,7 @@
     <t>1.2.2.2 Documento de Requerimientos de Software</t>
   </si>
   <si>
-    <t>1.2.2.3 Validación de los requisitos con los usuarios</t>
-  </si>
-  <si>
     <t>1.3.3.2 Verificación de que el portal web funcione correctamente en un entorno real con usuarios reales. (Capacitacion)</t>
-  </si>
-  <si>
-    <t>1.2.2.2.1 Casos de Uso</t>
   </si>
   <si>
     <t>1.2.6 Plan de Costos</t>
@@ -320,9 +314,6 @@
     <t>1.2.8.2.2 Diagrama de Despliegue (UML)</t>
   </si>
   <si>
-    <t>1.4.6 Control de Costos</t>
-  </si>
-  <si>
     <t>1.4.1 Control de Riesgos</t>
   </si>
   <si>
@@ -332,10 +323,16 @@
     <t>1.4.3 Seguimiento de Cronograma</t>
   </si>
   <si>
-    <t>1.4.4 Gestión de Comunicaciones</t>
+    <t>1.4.4 Control de Alcance</t>
   </si>
   <si>
-    <t>1.4.5 Control de Alcance</t>
+    <t>1.4.5 Control de Costos</t>
+  </si>
+  <si>
+    <t>1.2.2.3 Casos de Uso</t>
+  </si>
+  <si>
+    <t>1.2.2.4 Validación de los requisitos con los usuarios</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1189,8 @@
   <dimension ref="A1:AE920"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -1211,7 +1208,7 @@
     <col min="18" max="18" width="3" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
     <col min="20" max="20" width="8.3984375" customWidth="1"/>
-    <col min="21" max="21" width="36.5" customWidth="1"/>
+    <col min="21" max="21" width="38.09765625" customWidth="1"/>
     <col min="22" max="22" width="13.3984375" customWidth="1"/>
     <col min="23" max="23" width="26.09765625" customWidth="1"/>
     <col min="24" max="31" width="13.3984375" customWidth="1"/>
@@ -1712,7 +1709,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V14" s="18"/>
       <c r="W14" s="22" t="s">
@@ -1798,7 +1795,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
       <c r="U16" s="41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16" s="22" t="s">
@@ -1882,7 +1879,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V18" s="18"/>
       <c r="W18" s="22" t="s">
@@ -1966,7 +1963,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
       <c r="U20" s="41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
@@ -2030,7 +2027,7 @@
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="35" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -2048,9 +2045,9 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
       <c r="U22" s="41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
-      <c r="V22" s="18"/>
+      <c r="V22" s="11"/>
       <c r="W22" s="18"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
@@ -2086,9 +2083,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
-      <c r="U23" s="40" t="s">
-        <v>10</v>
-      </c>
+      <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="11"/>
@@ -2110,7 +2105,7 @@
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="22" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -2127,9 +2122,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="41" t="s">
-        <v>55</v>
-      </c>
+      <c r="U24" s="18"/>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
       <c r="X24" s="11"/>
@@ -2408,7 +2401,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="32"/>
       <c r="G32" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="32"/>
@@ -2482,7 +2475,7 @@
       <c r="E34" s="25"/>
       <c r="F34" s="32"/>
       <c r="G34" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="32"/>
@@ -2556,7 +2549,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -2630,7 +2623,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="25"/>
       <c r="G38" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -2704,7 +2697,7 @@
       <c r="E40" s="17"/>
       <c r="F40" s="32"/>
       <c r="G40" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -2715,7 +2708,7 @@
       <c r="N40" s="17"/>
       <c r="O40" s="16"/>
       <c r="P40" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="18"/>
@@ -2778,7 +2771,7 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -2850,7 +2843,7 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -2920,7 +2913,7 @@
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
